--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary-20241112.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary-20241112.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA10ACB4-92AA-44B7-AE06-365125026927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EB7425-BA8E-4CDF-93E4-956B801E3213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="412">
   <si>
     <t>Test Status</t>
   </si>
@@ -1425,9 +1425,6 @@
     <t xml:space="preserve">Map to default value:
 "GST" &gt;&gt; INVVENDOR.TAX1CODE
 </t>
-  </si>
-  <si>
-    <t>WIP</t>
   </si>
   <si>
     <t>Fix Status</t>
@@ -1761,6 +1758,11 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>WORKAROUND
+Can not use Credit Note's invoice number directly =&gt; violate unique constraint for invoice number.
+(Prepend Credit Note's invoice number with "NI-")</t>
   </si>
 </sst>
 </file>
@@ -4102,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R19" sqref="R18:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4164,10 +4166,10 @@
         <v>49</v>
       </c>
       <c r="J1" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" s="70" t="s">
         <v>382</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>383</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>50</v>
@@ -4185,10 +4187,10 @@
         <v>252</v>
       </c>
       <c r="Q1" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>371</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>372</v>
       </c>
       <c r="S1" s="30" t="s">
         <v>53</v>
@@ -4231,10 +4233,10 @@
         <v>110</v>
       </c>
       <c r="J2" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>121</v>
@@ -4282,10 +4284,10 @@
         <v>111</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>121</v>
@@ -4331,10 +4333,10 @@
         <v>112</v>
       </c>
       <c r="J4" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>121</v>
@@ -4380,10 +4382,10 @@
         <v>113</v>
       </c>
       <c r="J5" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>121</v>
@@ -4433,10 +4435,10 @@
         <v>114</v>
       </c>
       <c r="J6" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>121</v>
@@ -4484,10 +4486,10 @@
         <v>115</v>
       </c>
       <c r="J7" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>121</v>
@@ -4535,10 +4537,10 @@
         <v>116</v>
       </c>
       <c r="J8" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>121</v>
@@ -4586,10 +4588,10 @@
         <v>117</v>
       </c>
       <c r="J9" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>121</v>
@@ -4637,7 +4639,7 @@
         <v>163</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="32" t="s">
@@ -4652,10 +4654,10 @@
       </c>
       <c r="P10" s="67"/>
       <c r="Q10" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="R10" s="48" t="s">
         <v>373</v>
-      </c>
-      <c r="R10" s="48" t="s">
-        <v>374</v>
       </c>
       <c r="S10" s="44"/>
       <c r="T10" s="43"/>
@@ -4684,10 +4686,10 @@
         <v>119</v>
       </c>
       <c r="J11" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>121</v>
@@ -4735,10 +4737,10 @@
         <v>120</v>
       </c>
       <c r="J12" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>121</v>
@@ -4786,10 +4788,10 @@
         <v>235</v>
       </c>
       <c r="J13" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="K13" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>121</v>
@@ -4837,10 +4839,10 @@
         <v>123</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>121</v>
@@ -4870,7 +4872,7 @@
       <c r="Y14" s="33"/>
       <c r="Z14" s="35"/>
       <c r="AA14" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,10 +4890,10 @@
         <v>124</v>
       </c>
       <c r="J15" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="K15" s="73" t="s">
         <v>384</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>385</v>
       </c>
       <c r="L15" s="32" t="s">
         <v>121</v>
@@ -4921,7 +4923,7 @@
       <c r="Y15" s="33"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="92.4" x14ac:dyDescent="0.25">
@@ -5034,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>121</v>
@@ -5050,7 +5052,7 @@
       <c r="Q18" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="85" t="s">
         <v>258</v>
       </c>
       <c r="S18" s="44"/>
@@ -5080,10 +5082,10 @@
         <v>128</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>121</v>
@@ -5101,7 +5103,7 @@
       <c r="Q19" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="47" t="s">
         <v>258</v>
       </c>
       <c r="S19" s="44"/>
@@ -5182,7 +5184,7 @@
         <v>125</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="32" t="s">
@@ -5196,11 +5198,11 @@
         <v>143</v>
       </c>
       <c r="P21" s="57"/>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R21" s="49" t="s">
-        <v>375</v>
+      <c r="R21" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="S21" s="33"/>
       <c r="T21" s="35"/>
@@ -5229,7 +5231,7 @@
         <v>132</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="32" t="s">
@@ -5321,10 +5323,10 @@
         <v>150</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L24" s="32" t="s">
         <v>121</v>
@@ -5340,7 +5342,7 @@
       <c r="Q24" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="47" t="s">
         <v>258</v>
       </c>
       <c r="S24" s="44"/>
@@ -5416,13 +5418,13 @@
         <v>73</v>
       </c>
       <c r="I26" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" s="72" t="s">
         <v>391</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="K26" s="72" t="s">
-        <v>392</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>121</v>
@@ -5434,7 +5436,7 @@
       <c r="Q26" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="47" t="s">
         <v>258</v>
       </c>
       <c r="S26" s="44"/>
@@ -5556,10 +5558,10 @@
         <v>156</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K29" s="73" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>121</v>
@@ -5607,7 +5609,7 @@
         <v>130</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="32" t="s">
@@ -5621,11 +5623,11 @@
         <v>147</v>
       </c>
       <c r="P30" s="57"/>
-      <c r="Q30" s="33" t="s">
+      <c r="Q30" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R30" s="49" t="s">
-        <v>375</v>
+      <c r="R30" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="S30" s="44"/>
       <c r="T30" s="43"/>
@@ -5654,10 +5656,10 @@
         <v>158</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K31" s="73" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>121</v>
@@ -5703,7 +5705,7 @@
         <v>157</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="32" t="s">
@@ -5717,11 +5719,11 @@
         <v>162</v>
       </c>
       <c r="P32" s="57"/>
-      <c r="Q32" s="33" t="s">
+      <c r="Q32" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R32" s="49" t="s">
-        <v>375</v>
+      <c r="R32" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="S32" s="44"/>
       <c r="T32" s="43"/>
@@ -5750,10 +5752,10 @@
         <v>164</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L33" s="32" t="s">
         <v>121</v>
@@ -5769,7 +5771,7 @@
       <c r="Q33" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="47" t="s">
         <v>258</v>
       </c>
       <c r="S33" s="44"/>
@@ -5799,10 +5801,10 @@
         <v>166</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>121</v>
@@ -5848,10 +5850,10 @@
         <v>167</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K35" s="73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>121</v>
@@ -5864,10 +5866,10 @@
         <v>162</v>
       </c>
       <c r="P35" s="57"/>
-      <c r="Q35" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="R35" s="33" t="s">
+      <c r="Q35" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="R35" s="47" t="s">
         <v>258</v>
       </c>
       <c r="S35" s="44"/>
@@ -5879,7 +5881,7 @@
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
       <c r="AA35" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
@@ -5897,10 +5899,10 @@
         <v>168</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K36" s="73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>121</v>
@@ -5946,7 +5948,7 @@
         <v>169</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="32" t="s">
@@ -5993,10 +5995,10 @@
         <v>171</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K38" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>121</v>
@@ -6086,13 +6088,13 @@
         <v>77</v>
       </c>
       <c r="I40" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K40" s="48" t="s">
         <v>400</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>401</v>
       </c>
       <c r="L40" s="75"/>
       <c r="M40" s="33"/>
@@ -6100,7 +6102,7 @@
       <c r="O40" s="33"/>
       <c r="P40" s="57"/>
       <c r="Q40" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R40" s="33"/>
       <c r="S40" s="44"/>
@@ -6128,10 +6130,10 @@
         <v>173</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K41" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>121</v>
@@ -6227,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>121</v>
@@ -6273,7 +6275,7 @@
         <v>176</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K44" s="33"/>
       <c r="L44" s="32" t="s">
@@ -6287,11 +6289,11 @@
         <v>199</v>
       </c>
       <c r="P44" s="57"/>
-      <c r="Q44" s="33" t="s">
+      <c r="Q44" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R44" s="49" t="s">
-        <v>375</v>
+      <c r="R44" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="S44" s="44"/>
       <c r="T44" s="43"/>
@@ -6320,7 +6322,7 @@
         <v>177</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="32" t="s">
@@ -6334,11 +6336,11 @@
         <v>199</v>
       </c>
       <c r="P45" s="57"/>
-      <c r="Q45" s="33" t="s">
+      <c r="Q45" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R45" s="49" t="s">
-        <v>377</v>
+      <c r="R45" s="47" t="s">
+        <v>376</v>
       </c>
       <c r="S45" s="44"/>
       <c r="T45" s="43"/>
@@ -6445,7 +6447,7 @@
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
       <c r="AA47" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,13 +6462,13 @@
         <v>179</v>
       </c>
       <c r="I48" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" s="78" t="s">
         <v>404</v>
-      </c>
-      <c r="J48" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="K48" s="78" t="s">
-        <v>405</v>
       </c>
       <c r="L48" s="75"/>
       <c r="M48" s="33"/>
@@ -6476,7 +6478,9 @@
       <c r="Q48" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R48" s="48"/>
+      <c r="R48" s="47" t="s">
+        <v>258</v>
+      </c>
       <c r="S48" s="50"/>
       <c r="T48" s="51"/>
       <c r="U48" s="43"/>
@@ -6502,7 +6506,7 @@
         <v>181</v>
       </c>
       <c r="J49" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K49" s="71"/>
       <c r="L49" s="32" t="s">
@@ -6549,7 +6553,7 @@
         <v>182</v>
       </c>
       <c r="J50" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="32" t="s">
@@ -6596,7 +6600,7 @@
         <v>183</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K51" s="33"/>
       <c r="L51" s="32" t="s">
@@ -6643,7 +6647,7 @@
         <v>185</v>
       </c>
       <c r="J52" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K52" s="33"/>
       <c r="L52" s="32" t="s">
@@ -6692,7 +6696,7 @@
         <v>186</v>
       </c>
       <c r="J53" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="32" t="s">
@@ -6741,7 +6745,7 @@
         <v>187</v>
       </c>
       <c r="J54" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K54" s="33"/>
       <c r="L54" s="32" t="s">
@@ -6790,7 +6794,7 @@
         <v>188</v>
       </c>
       <c r="J55" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K55" s="33"/>
       <c r="L55" s="32" t="s">
@@ -6804,11 +6808,11 @@
         <v>199</v>
       </c>
       <c r="P55" s="57"/>
-      <c r="Q55" s="33" t="s">
+      <c r="Q55" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R55" s="49" t="s">
-        <v>375</v>
+      <c r="R55" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="S55" s="44"/>
       <c r="T55" s="43"/>
@@ -6839,7 +6843,7 @@
         <v>189</v>
       </c>
       <c r="J56" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K56" s="33"/>
       <c r="L56" s="32" t="s">
@@ -6886,7 +6890,7 @@
         <v>190</v>
       </c>
       <c r="J57" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="32" t="s">
@@ -6933,7 +6937,7 @@
         <v>191</v>
       </c>
       <c r="J58" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K58" s="33"/>
       <c r="L58" s="32" t="s">
@@ -6980,7 +6984,7 @@
         <v>192</v>
       </c>
       <c r="J59" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="32" t="s">
@@ -7027,7 +7031,7 @@
         <v>193</v>
       </c>
       <c r="J60" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K60" s="33"/>
       <c r="L60" s="32" t="s">
@@ -7074,7 +7078,7 @@
         <v>194</v>
       </c>
       <c r="J61" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="32" t="s">
@@ -7088,11 +7092,11 @@
         <v>199</v>
       </c>
       <c r="P61" s="57"/>
-      <c r="Q61" s="33" t="s">
+      <c r="Q61" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R61" s="49" t="s">
-        <v>375</v>
+      <c r="R61" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="S61" s="44"/>
       <c r="T61" s="43"/>
@@ -7118,10 +7122,10 @@
         <v>223</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J62" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K62" s="33"/>
       <c r="L62" s="32" t="s">
@@ -7170,7 +7174,7 @@
         <v>195</v>
       </c>
       <c r="J63" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="32" t="s">
@@ -7231,11 +7235,11 @@
         <v>199</v>
       </c>
       <c r="P64" s="57"/>
-      <c r="Q64" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="R64" s="49" t="s">
-        <v>375</v>
+      <c r="Q64" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="R64" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="S64" s="44"/>
       <c r="T64" s="43"/>
@@ -7264,7 +7268,7 @@
         <v>197</v>
       </c>
       <c r="J65" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="32" t="s">
@@ -7311,7 +7315,7 @@
         <v>198</v>
       </c>
       <c r="J66" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K66" s="33"/>
       <c r="L66" s="32" t="s">
@@ -7327,11 +7331,11 @@
       <c r="P66" s="57">
         <v>206</v>
       </c>
-      <c r="Q66" s="33" t="s">
+      <c r="Q66" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="R66" s="49" t="s">
-        <v>375</v>
+      <c r="R66" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="S66" s="44"/>
       <c r="T66" s="43"/>
@@ -7357,10 +7361,10 @@
         <v>79</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J67" s="79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K67" s="48"/>
       <c r="L67" s="75" t="s">
